--- a/MirelaCvetkova/Lesson8/BUGS1.xlsx
+++ b/MirelaCvetkova/Lesson8/BUGS1.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test case template" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="&quot;My store&quot;" sheetId="1" r:id="rId1"/>
+    <sheet name="https   phptravels.com " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="41">
   <si>
     <t>Priority</t>
   </si>
@@ -132,12 +132,6 @@
     <t>B01</t>
   </si>
   <si>
-    <t>There is option only "USA" in field "Country"</t>
-  </si>
-  <si>
-    <t>Un successful chooses a country</t>
-  </si>
-  <si>
     <t>Mirela Cvetkova</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>31.10.2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> Result: 1.Open http://automationpractice.com/index.php 2.Click "Sign in" button. 3.Enter email address: mira1929@abv.bg and click "Create an account" button 4.In field "Country" there is only "USA" un option in dropdown list. Expected result: In dropdown list should be Bulgaria as  an option</t>
-  </si>
-  <si>
     <t>Microsoft Windows 10 Pro, Chrome</t>
   </si>
   <si>
@@ -159,20 +150,104 @@
     <t>When clicks "Sale 70% off all products" nothing happens</t>
   </si>
   <si>
-    <t xml:space="preserve">Clicks "Sale 70% off all products" </t>
-  </si>
-  <si>
     <t>Home page</t>
   </si>
   <si>
-    <t>Result: 1.Open http://automationpractice.com/index.php 2.Click "Sale 70% off all products"  at the top. 3. There isn't result. Expected result: After clicks "Sale 70% off all products" shows clothes with 70% discount.</t>
+    <t xml:space="preserve">Only "USA" as an option in the "country" field </t>
+  </si>
+  <si>
+    <t>There is option only "USA" in "Country" field, in "create an account"</t>
+  </si>
+  <si>
+    <t>In "Password" field accepts "Space" for password before click "Register"</t>
+  </si>
+  <si>
+    <t>02.11.2018</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>When enter email and password in login page and click "Remember me" box, the data is not saved.</t>
+  </si>
+  <si>
+    <t>Email and password not saved after click "Remember me"</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>When change the language from English to Italian, many of the fields remain in English</t>
+  </si>
+  <si>
+    <t>Click on "Selling 70% of all products" do not show reduced prices.</t>
+  </si>
+  <si>
+    <t>Accepts only spaces for password</t>
+  </si>
+  <si>
+    <t>Localization not applied everywhere.</t>
+  </si>
+  <si>
+    <t>1.Open https://phptravels.com/
+2.Click "Login" button
+3.Click "Account"and in dropdown list press "Register" 
+4.Enter only spaces in "Password" field. 
+ Actual result:
+А green progress bar appears under the "Password" field
+Expected result:
+When enter "Space" don't appears green progress bar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open https://phptravels.com/
+2.Click "Login" button
+3.Enter Email: mira1929@abv.bg
+4.Enter Password: 123412
+5.Click "Remember me" check box
+6.Click "Login"button
+7.Click "Logout" button and "You have been successfully logged out. Click here to continue" a message appears.
+8.Click "Click here to continue" 
+Actual result:
+"Login page" with empty fields appears.
+Expected result:
+After Click "Remember me" check box the data are saved for future inputs.
+</t>
+  </si>
+  <si>
+    <t>1.Open https://phptravels.com/
+2.Click "Login" button
+3.Enter Email: mira1929@abv.bg
+4.Enter Password: 123412
+5.Click "Login" button
+6.Choose Italian language in the field top right
+Actual result:
+The fields as "Your Info","Your Active Products/Services" and " Recent Support Tickets" are English
+Expected result:
+When change language to Italian all texts should be in Italian</t>
+  </si>
+  <si>
+    <t>1.Open http://automationpractice.com/index.php 
+2.Click "Sale 70% off all products"  at the top. 
+Actual result:
+ There isn't result. 
+Expected result: 
+After clicks "Sale 70% off all products" shows clothes with 70% discount.</t>
+  </si>
+  <si>
+    <t>1.Open http://automationpractice.com/index.php 
+2.Click "Sign in" button. 
+3.Enter email address: mira1929@abv.bg and click "Create an account" button 
+Actual result:
+In field "Country" there is only "USA" as an option in dropdown list. 
+Expected result:
+ In dropdown list should be Bulgaria as  an option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +284,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -267,42 +348,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,72 +657,6 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2247900" cy="516255"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="logo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4827270" y="28575"/>
-          <a:ext cx="2247900" cy="516255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2247900" cy="516255"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="logo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4827270" y="28575"/>
-          <a:ext cx="2247900" cy="516255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2114550</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -460,6 +688,159 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827270" y="28575"/>
+          <a:ext cx="2247900" cy="516255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2247900" cy="516255"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827270" y="28575"/>
+          <a:ext cx="2247900" cy="516255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2247900" cy="516255"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827270" y="28575"/>
+          <a:ext cx="2247900" cy="516255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4434840</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2462012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2727960" y="15133050"/>
+          <a:ext cx="4419600" cy="2454662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -752,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,132 +1146,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -901,132 +1282,132 @@
     </row>
     <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>24</v>
+      <c r="B27" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
+      <c r="B31" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
+      <c r="B32" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>27</v>
+      <c r="B36" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>23</v>
+      <c r="B38" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>21</v>
+      <c r="B40" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>19</v>
+      <c r="B41" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="44" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1048,14 +1429,461 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="140.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="28"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="88" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A48:B50"/>
+    <mergeCell ref="A26:B28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MirelaCvetkova/Lesson8/BUGS1.xlsx
+++ b/MirelaCvetkova/Lesson8/BUGS1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;My store&quot;" sheetId="1" r:id="rId1"/>
     <sheet name="https   phptravels.com " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>Priority</t>
   </si>
@@ -189,17 +190,142 @@
     <t>Localization not applied everywhere.</t>
   </si>
   <si>
-    <t>1.Open https://phptravels.com/
+    <t>P2</t>
+  </si>
+  <si>
+    <t>03.11.2018</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>When change the language from English to Estonian, many of the fields remain in English</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open https://phptravels.com/
 2.Click "Login" button
-3.Click "Account"and in dropdown list press "Register" 
-4.Enter only spaces in "Password" field. 
- Actual result:
-А green progress bar appears under the "Password" field
-Expected result:
-When enter "Space" don't appears green progress bar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Open https://phptravels.com/
+3.Enter Email: mira1929@abv.bg
+4.Enter Password: 123412
+5.Click "Login" button
+6.Choose Estonian language in the field top right
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The fields as "Your Info","Your Active Products/Services" and " Recent Support Tickets" are English
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When change language to Estonian all texts should be in Estonian</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open https://phptravels.com/
+2.Click "Login" button
+3.Enter Email: mira1929@abv.bg
+4.Enter Password: 123412
+5.Click "Login" button
+6.Choose Italian language in the field top right
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The fields as "Your Info","Your Active Products/Services" and " Recent Support Tickets" are English
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When change language to Italian all texts should be in Italian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open https://phptravels.com/
 2.Click "Login" button
 3.Enter Email: mira1929@abv.bg
 4.Enter Password: 123412
@@ -207,47 +333,281 @@
 6.Click "Login"button
 7.Click "Logout" button and "You have been successfully logged out. Click here to continue" a message appears.
 8.Click "Click here to continue" 
-Actual result:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 "Login page" with empty fields appears.
-Expected result:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 After Click "Remember me" check box the data are saved for future inputs.
 </t>
-  </si>
-  <si>
-    <t>1.Open https://phptravels.com/
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open https://phptravels.com/
+2.Click "Login" button
+3.Click "Account"and in dropdown list press "Register" 
+4.Enter only spaces in "Password" field. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+А green progress bar appears under the "Password" field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When enter "Space" don't appears green progress bar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open http://automationpractice.com/index.php 
+2.Click "Sign in" button. 
+3.Enter email address: mira1929@abv.bg and click "Create an account" button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In field "Country" there is only "USA" as an option in dropdown list. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ In dropdown list should be Bulgaria as  an option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open http://automationpractice.com/index.php 
+2.Click "Sale 70% off all products"  at the top. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ There isn't result. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After clicks "Sale 70% off all products" shows clothes with 70% discount.</t>
+    </r>
+  </si>
+  <si>
+    <t>When change the language from English to Hrvatski, many of the fields remain in English</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open https://phptravels.com/
 2.Click "Login" button
 3.Enter Email: mira1929@abv.bg
 4.Enter Password: 123412
 5.Click "Login" button
-6.Choose Italian language in the field top right
-Actual result:
+6.Choose Hrvatski language in the field top right
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 The fields as "Your Info","Your Active Products/Services" and " Recent Support Tickets" are English
-Expected result:
-When change language to Italian all texts should be in Italian</t>
-  </si>
-  <si>
-    <t>1.Open http://automationpractice.com/index.php 
-2.Click "Sale 70% off all products"  at the top. 
-Actual result:
- There isn't result. 
-Expected result: 
-After clicks "Sale 70% off all products" shows clothes with 70% discount.</t>
-  </si>
-  <si>
-    <t>1.Open http://automationpractice.com/index.php 
-2.Click "Sign in" button. 
-3.Enter email address: mira1929@abv.bg and click "Create an account" button 
-Actual result:
-In field "Country" there is only "USA" as an option in dropdown list. 
-Expected result:
- In dropdown list should be Bulgaria as  an option</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When change language to Hrvatski all texts should be in Hrvatski</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +650,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -550,6 +925,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -841,6 +1226,77 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827270" y="28575"/>
+          <a:ext cx="2247900" cy="516255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2247900" cy="516255"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4827270" y="20038695"/>
+          <a:ext cx="2247900" cy="516255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1133,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,18 +1602,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1200,16 +1656,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>40</v>
+      <c r="B9" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1282,18 +1738,18 @@
     </row>
     <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -1336,16 +1792,16 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>39</v>
+      <c r="B32" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -1431,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,18 +1898,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -1500,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1595,18 +2051,18 @@
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
@@ -1653,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1735,18 +2191,18 @@
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="34"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
@@ -1793,7 +2249,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1866,22 +2322,269 @@
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="88" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A69" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="30"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="32"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="32"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="18"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="22"/>
+    </row>
+    <row r="88" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="30"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="31"/>
+      <c r="B91" s="32"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="31"/>
+      <c r="B92" s="32"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="18"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="18"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="14"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="18"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="22"/>
+    </row>
+    <row r="109" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A90:B92"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A48:B50"/>
     <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A69:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
